--- a/17_TwigFarm/data_similarity_작업하고/구글_파파고_1000.xlsx
+++ b/17_TwigFarm/data_similarity_작업하고/구글_파파고_1000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haley/Desktop/GIT/TIL/17_TwigFarm/data_similarity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haley/Desktop/GIT/TIL/17_TwigFarm/data_similarity_작업하고/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7CFF18-A155-464F-90B1-417C83A41013}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209609B-165D-A44E-9EE1-5EBC5E3AEA5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23160" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{AD1985C4-87D2-594B-8043-D2C934550EBF}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5752,10 +5751,14 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
